--- a/biology/Botanique/Moringa_arborea/Moringa_arborea.xlsx
+++ b/biology/Botanique/Moringa_arborea/Moringa_arborea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moringa arborea est une espèce d'arbre de la famille des Moringaceae. Elle fut découverte en 1972 au Kenya.
 Elle pousse en terrain très aride. Ses fleurs rose clair et rouge foncé forment de longues panicules.
